--- a/9 7/ExactModelData.xlsx
+++ b/9 7/ExactModelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\9 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6EE3F-9FFB-49DF-9982-075FAD392CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE83B2F4-248C-41DB-BC9F-B79E5E76FD34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -362,31 +362,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26.736871040819281</c:v>
+                  <c:v>-38.724211319103432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.652079136395471</c:v>
+                  <c:v>34.014766410182588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.664503087627338</c:v>
+                  <c:v>67.01514889015138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.916118814964932</c:v>
+                  <c:v>85.559295732328877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.140733328166007</c:v>
+                  <c:v>-59.713002513144104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-38.686083901859149</c:v>
+                  <c:v>77.38088665504381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.698178899508179</c:v>
+                  <c:v>-60.065535067182935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.927947134272685</c:v>
+                  <c:v>-3.8290425447193712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-41.159142987945756</c:v>
+                  <c:v>-40.797244984967492</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -404,31 +404,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.156431723470519</c:v>
+                  <c:v>83.923392211741159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.290501470318304</c:v>
+                  <c:v>15.068983980589366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.570163058366845</c:v>
+                  <c:v>46.310928376600017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-18.664498173213417</c:v>
+                  <c:v>-54.931403020809057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.179289714773688</c:v>
+                  <c:v>-56.805188600727121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.385059139015723</c:v>
+                  <c:v>20.157923649792124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.351364235982544</c:v>
+                  <c:v>-39.385454258620868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-44.651861021190754</c:v>
+                  <c:v>-3.5742871582313995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.4247722203006532</c:v>
+                  <c:v>22.778452889842185</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1501,36 +1501,36 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1583,25 +1583,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.1955186895631038</v>
+        <v>0.84417443860712393</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>14.996821902709479</v>
+        <v>13.177005230925166</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L11" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>0.10994514049521265</v>
+        <v>2.1060645082606938E-2</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.1955186895631038</v>
+        <v>1.3662018115984791</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>14.996821902709479</v>
+        <v>9.0028936839529869</v>
       </c>
       <c r="U2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.72958621951602431</v>
+        <v>1.3662018115984791</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>12.486431621917994</v>
+        <v>9.0028936839529869</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H11" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-26.736871040819281</v>
+        <v>-38.724211319103432</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>22.156431723470519</v>
+        <v>83.923392211741159</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I11" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>6.2853522864618705E-2</v>
+        <v>4.4973147212987036E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1704,50 +1704,50 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>0.84329113291153468</v>
+        <v>0.84417443860712393</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>9.8242096707510065</v>
+        <v>13.177005230925166</v>
       </c>
       <c r="U3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.72958621951602431</v>
+        <v>1.3662018115984791</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>12.486431621917994</v>
+        <v>9.0028936839529869</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>71.652079136395471</v>
+        <v>34.014766410182588</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>43.290501470318304</v>
+        <v>15.068983980589366</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J11" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>0.12704559076608132</v>
+        <v>3.6104411014064364E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1772,50 +1772,50 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.72958621951602431</v>
+        <v>1.0954024759051502</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>12.486431621917994</v>
+        <v>9.5974563671949227</v>
       </c>
       <c r="U4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.72958621951602431</v>
+        <v>0.84417443860712393</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>12.486431621917994</v>
+        <v>13.177005230925166</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>75.664503087627338</v>
+        <v>67.01514889015138</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>84.570163058366845</v>
+        <v>46.310928376600017</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.10432780981871675</v>
+        <v>7.8230930841863305E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1838,40 +1838,40 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.72958621951602431</v>
+        <v>0.84417443860712393</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>12.486431621917994</v>
+        <v>13.177005230925166</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-5.916118814964932</v>
+        <v>85.559295732328877</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-18.664498173213417</v>
+        <v>-54.931403020809057</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.11158952623802804</v>
+        <v>0.13642484844586375</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1894,40 +1894,40 @@
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ref="B7:B8" ca="1" si="2">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7:E7" ca="1">_xlfn.XLOOKUP(B7,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.72958621951602431</v>
+        <v>0.84417443860712393</v>
       </c>
       <c r="D7" s="8">
         <f ca="1"/>
-        <v>12.486431621917994</v>
+        <v>13.177005230925166</v>
       </c>
       <c r="E7" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>20.140733328166007</v>
+        <v>-59.713002513144104</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>-1.179289714773688</v>
+        <v>-56.805188600727121</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.13477850736656427</v>
+        <v>2.4597157326351482E-2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1949,7 +1949,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8:E8" ca="1">_xlfn.XLOOKUP(B8,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.72958621951602431</v>
+        <v>1.0954024759051502</v>
       </c>
       <c r="D8" s="8">
         <f ca="1"/>
-        <v>12.486431621917994</v>
+        <v>9.5974563671949227</v>
       </c>
       <c r="E8" s="2">
         <f ca="1"/>
@@ -1974,19 +1974,19 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-38.686083901859149</v>
+        <v>77.38088665504381</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>33.385059139015723</v>
+        <v>20.157923649792124</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K11" ca="1" si="4">IF(J8=0,24,J8+1)</f>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>3.120817525071104E-2</v>
+        <v>9.2608945008583049E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2003,33 +2003,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>76.698178899508179</v>
+        <v>-60.065535067182935</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>89.351364235982544</v>
+        <v>-39.385454258620868</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>4.7827057191520139E-2</v>
+        <v>3.1151505469105001E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2038,17 +2038,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>5.927947134272685</v>
+        <v>-3.8290425447193712</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>-44.651861021190754</v>
+        <v>-3.5742871582313995</v>
       </c>
       <c r="I10">
         <f ca="1"/>
@@ -2056,15 +2056,15 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>0.15311058104903594</v>
+        <v>0.15565834672897488</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2073,25 +2073,25 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>-41.159142987945756</v>
+        <v>-40.797244984967492</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>-7.4247722203006532</v>
+        <v>22.778452889842185</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>0.12834286353621099</v>
+        <v>0.12483688018610364</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>11</v>
       </c>
@@ -2137,28 +2137,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.57653061224489799</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -2180,58 +2180,58 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SQRT(('1D'!$G$2-'1D'!$G2)^2+('1D'!$H$2-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>34.724166509366519</v>
+        <v>92.426729373121901</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>83.714323518260073</v>
+        <v>37.20320701426887</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>113.4778811364414</v>
+        <v>81.460004099384463</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>19.579682170318012</v>
+        <v>101.67522866483587</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>20.175228951059463</v>
+        <v>82.416455402419075</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>51.09966009062353</v>
+        <v>79.963388531199612</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>117.75515673350438</v>
+        <v>71.826753442327458</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>45.043637174216585</v>
+        <v>5.2380430982160586</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>41.823465829908365</v>
+        <v>46.725508177206748</v>
       </c>
       <c r="K1">
         <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>34.724166509366519</v>
+        <v>92.426729373121901</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2239,49 +2239,49 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>100.63316759915229</v>
+        <v>100.15931516321221</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>119.92295561125366</v>
+        <v>112.22971858296866</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>45.824142554775683</v>
+        <v>186.35193662550671</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>52.364737050981539</v>
+        <v>142.2851461442074</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>16.397126627417805</v>
+        <v>132.46293351919712</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>123.34491684507749</v>
+        <v>125.14201419655853</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>74.366244532503984</v>
+        <v>94.199345533412654</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>32.909718243702031</v>
+        <v>61.180070883078528</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>34.724166509366519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92.426729373121901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>83.714323518260073</v>
+        <v>37.20320701426887</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>100.63316759915229</v>
+        <v>100.15931516321221</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2289,49 +2289,49 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>41.474208935050584</v>
+        <v>45.443198979249388</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>99.273598273918978</v>
+        <v>86.930389872513217</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>68.051312074203864</v>
+        <v>118.11346812109697</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>110.78189387456426</v>
+        <v>43.663688484237653</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>46.336445715404636</v>
+        <v>108.70321508593914</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>109.7885269416638</v>
+        <v>42.186792186307613</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>123.68674473322453</v>
+        <v>75.20819742455474</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>83.714323518260073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.20320701426887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>113.4778811364414</v>
+        <v>81.460004099384463</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>119.92295561125366</v>
+        <v>112.22971858296866</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>41.474208935050584</v>
+        <v>45.443198979249388</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2339,49 +2339,49 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>131.57808764993075</v>
+        <v>102.92664887621206</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>102.15604563213442</v>
+        <v>163.37979660465487</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>125.2835647963247</v>
+        <v>28.13233327775983</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>4.8916633556389861</v>
+        <v>153.27547172273219</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>146.83841031369528</v>
+        <v>86.645451057843772</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>148.69711631136963</v>
+        <v>110.3507574764153</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>113.4778811364414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>81.460004099384463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>19.579682170318012</v>
+        <v>101.67522866483587</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>45.824142554775683</v>
+        <v>186.35193662550671</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>99.273598273918978</v>
+        <v>86.930389872513217</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>131.57808764993075</v>
+        <v>102.92664887621206</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2389,49 +2389,49 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>31.379803352539987</v>
+        <v>145.28438219547607</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>61.506316977976269</v>
+        <v>75.533392316773885</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>135.98731087442661</v>
+        <v>146.45227163927169</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>28.559147851473487</v>
+        <v>103.0913593355633</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>36.991920636186109</v>
+        <v>148.34013983981527</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>19.579682170318012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101.67522866483587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>20.175228951059463</v>
+        <v>82.416455402419075</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>52.364737050981539</v>
+        <v>142.2851461442074</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>68.051312074203864</v>
+        <v>118.11346812109697</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>102.15604563213442</v>
+        <v>163.37979660465487</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>31.379803352539987</v>
+        <v>145.28438219547607</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2439,49 +2439,49 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>68.22967563385626</v>
+        <v>157.21976686964464</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>106.74522918757029</v>
+        <v>17.423301172602542</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>45.736940730495313</v>
+        <v>77.178661883536122</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>61.617212595973889</v>
+        <v>81.800744958491876</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>20.175228951059463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82.416455402419075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>51.09966009062353</v>
+        <v>79.963388531199612</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>16.397126627417805</v>
+        <v>132.46293351919712</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>110.78189387456426</v>
+        <v>43.663688484237653</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>125.2835647963247</v>
+        <v>28.13233327775983</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>61.506316977976269</v>
+        <v>75.533392316773885</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>68.22967563385626</v>
+        <v>157.21976686964464</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2489,49 +2489,49 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>128.2410051754967</v>
+        <v>149.78962813555646</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>89.889780694934259</v>
+        <v>84.606562573283981</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>40.88469587534091</v>
+        <v>118.20718240200888</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>51.09966009062353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>79.963388531199612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>117.75515673350438</v>
+        <v>71.826753442327458</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>123.34491684507749</v>
+        <v>125.14201419655853</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>46.336445715404636</v>
+        <v>108.70321508593914</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>4.8916633556389861</v>
+        <v>153.27547172273219</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>135.98731087442661</v>
+        <v>146.45227163927169</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>106.74522918757029</v>
+        <v>17.423301172602542</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>128.2410051754967</v>
+        <v>149.78962813555646</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2539,49 +2539,49 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>151.5430304680155</v>
+        <v>66.67070406348742</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>152.49907839029086</v>
+        <v>65.081628395847147</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>117.75515673350438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71.826753442327458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>45.043637174216585</v>
+        <v>5.2380430982160586</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>74.366244532503984</v>
+        <v>94.199345533412654</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>109.7885269416638</v>
+        <v>42.186792186307613</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>146.83841031369528</v>
+        <v>86.645451057843772</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>28.559147851473487</v>
+        <v>103.0913593355633</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>45.736940730495313</v>
+        <v>77.178661883536122</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>89.889780694934259</v>
+        <v>84.606562573283981</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>151.5430304680155</v>
+        <v>66.67070406348742</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2589,49 +2589,49 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>60.025412924587854</v>
+        <v>45.399503297993341</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>45.043637174216585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.2380430982160586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>41.823465829908365</v>
+        <v>46.725508177206748</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>32.909718243702031</v>
+        <v>61.180070883078528</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>123.68674473322453</v>
+        <v>75.20819742455474</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>148.69711631136963</v>
+        <v>110.3507574764153</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>36.991920636186109</v>
+        <v>148.34013983981527</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>61.617212595973889</v>
+        <v>81.800744958491876</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>40.88469587534091</v>
+        <v>118.20718240200888</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>152.49907839029086</v>
+        <v>65.081628395847147</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>60.025412924587854</v>
+        <v>45.399503297993341</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2639,49 +2639,49 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>41.823465829908365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46.725508177206748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
         <v>0</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>34.724166509366519</v>
+        <v>92.426729373121901</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>83.714323518260073</v>
+        <v>37.20320701426887</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>113.4778811364414</v>
+        <v>81.460004099384463</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>19.579682170318012</v>
+        <v>101.67522866483587</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>20.175228951059463</v>
+        <v>82.416455402419075</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>51.09966009062353</v>
+        <v>79.963388531199612</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>117.75515673350438</v>
+        <v>71.826753442327458</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>45.043637174216585</v>
+        <v>5.2380430982160586</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>41.823465829908365</v>
+        <v>46.725508177206748</v>
       </c>
       <c r="K11">
         <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2700,52 +2700,52 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>Distances!A1/80</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.43405208136708151</v>
+        <v>1.1553341171640237</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.0464290439782509</v>
+        <v>0.46504008767836086</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.4184735142055174</v>
+        <v>1.0182500512423058</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>1.2709403583104484</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.25219036188824329</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>0.63874575113279408</v>
+        <v>1.0302056925302385</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.63874575113279408</v>
+        <v>0.99954235663999513</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>1.4719394591688046</v>
+        <v>0.89783441802909325</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>0.56304546467770733</v>
+        <v>6.5475538727700733E-2</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>0.5227933228738546</v>
+        <v>0.58406885221508431</v>
       </c>
       <c r="K1">
         <f>Distances!K1/80</f>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.43405208136708151</v>
+        <v>1.1553341171640237</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2787,39 +2787,39 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.2579145949894035</v>
+        <v>1.2519914395401526</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.4990369451406707</v>
+        <v>1.4028714822871082</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>0.572801781934696</v>
+        <v>2.3293992078188337</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.65455921313726928</v>
+        <v>1.7785643268025926</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>0.20496408284272255</v>
+        <v>1.6557866689899641</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>1.5418114605634687</v>
+        <v>1.5642751774569816</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>0.92957805665629978</v>
+        <v>1.1774918191676582</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>0.41137147804627539</v>
+        <v>0.76475088603848163</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>0.43405208136708151</v>
+        <v>1.1553341171640237</v>
       </c>
       <c r="L2">
         <f>Distances!L2/80</f>
@@ -2846,14 +2846,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.0464290439782509</v>
+        <v>0.46504008767836086</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.2579145949894035</v>
+        <v>1.2519914395401526</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2861,35 +2861,35 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.51842761168813234</v>
+        <v>0.56803998724061733</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.2409199784239873</v>
+        <v>1.0866298734064153</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>0.85064140092754825</v>
+        <v>1.4764183515137121</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>1.3847736734320533</v>
+        <v>0.54579610605297069</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>0.57920557144255791</v>
+        <v>1.3587901885742393</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.3723565867707976</v>
+        <v>0.52733490232884517</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>1.5460843091653067</v>
+        <v>0.94010246780693429</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>1.0464290439782509</v>
+        <v>0.46504008767836086</v>
       </c>
       <c r="L3">
         <f>Distances!L3/80</f>
@@ -2916,18 +2916,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.4184735142055174</v>
+        <v>1.0182500512423058</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.4990369451406707</v>
+        <v>1.4028714822871082</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.51842761168813234</v>
+        <v>0.56803998724061733</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2935,31 +2935,31 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>1.6447260956241343</v>
+        <v>1.2865831109526507</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.2769505704016804</v>
+        <v>2.0422474575581857</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>1.5660445599540587</v>
+        <v>0.35165416597199789</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>6.1145791945487325E-2</v>
+        <v>1.9159433965341524</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>1.8354801289211911</v>
+        <v>1.0830681382230471</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>1.8587139538921202</v>
+        <v>1.3793844684551912</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.4184735142055174</v>
+        <v>1.0182500512423058</v>
       </c>
       <c r="L4">
         <f>Distances!L4/80</f>
@@ -2986,22 +2986,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>0.24474602712897514</v>
+        <v>1.2709403583104484</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>0.572801781934696</v>
+        <v>2.3293992078188337</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.2409199784239873</v>
+        <v>1.0866298734064153</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>1.6447260956241343</v>
+        <v>1.2865831109526507</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -3009,27 +3009,27 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.39224754190674982</v>
+        <v>1.8160547774434508</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>0.76882896222470332</v>
+        <v>0.94416740395967358</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>1.6998413859303327</v>
+        <v>1.8306533954908961</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>0.35698934814341859</v>
+        <v>1.2886419916945413</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>0.46239900795232636</v>
+        <v>1.8542517479976908</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>0.24474602712897514</v>
+        <v>1.2709403583104484</v>
       </c>
       <c r="L5">
         <f>Distances!L5/80</f>
@@ -3056,26 +3056,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.25219036188824329</v>
+        <v>1.0302056925302385</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.65455921313726928</v>
+        <v>1.7785643268025926</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>0.85064140092754825</v>
+        <v>1.4764183515137121</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.2769505704016804</v>
+        <v>2.0422474575581857</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.39224754190674982</v>
+        <v>1.8160547774434508</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3083,23 +3083,23 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.8528709454232033</v>
+        <v>1.965247085870558</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.3343153648446286</v>
+        <v>0.21779126465753179</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>0.57171175913119143</v>
+        <v>0.96473327354420157</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>0.77021515744967362</v>
+        <v>1.0225093119811484</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>0.25219036188824329</v>
+        <v>1.0302056925302385</v>
       </c>
       <c r="L6">
         <f>Distances!L6/80</f>
@@ -3126,30 +3126,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.63874575113279408</v>
+        <v>0.99954235663999513</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>0.20496408284272255</v>
+        <v>1.6557866689899641</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>1.3847736734320533</v>
+        <v>0.54579610605297069</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>1.5660445599540587</v>
+        <v>0.35165416597199789</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>0.76882896222470332</v>
+        <v>0.94416740395967358</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.8528709454232033</v>
+        <v>1.965247085870558</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3157,19 +3157,19 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.6030125646937088</v>
+        <v>1.8723703516944556</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>1.1236222586866782</v>
+        <v>1.0575820321660498</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>0.51105869844176133</v>
+        <v>1.477589780025111</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>0.63874575113279408</v>
+        <v>0.99954235663999513</v>
       </c>
       <c r="L7">
         <f>Distances!L7/80</f>
@@ -3196,34 +3196,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>1.4719394591688046</v>
+        <v>0.89783441802909325</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>1.5418114605634687</v>
+        <v>1.5642751774569816</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>0.57920557144255791</v>
+        <v>1.3587901885742393</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>6.1145791945487325E-2</v>
+        <v>1.9159433965341524</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>1.6998413859303327</v>
+        <v>1.8306533954908961</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.3343153648446286</v>
+        <v>0.21779126465753179</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.6030125646937088</v>
+        <v>1.8723703516944556</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3231,15 +3231,15 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>1.8942878808501937</v>
+        <v>0.83338380079359275</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>1.9062384798786358</v>
+        <v>0.81352035494808939</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>1.4719394591688046</v>
+        <v>0.89783441802909325</v>
       </c>
       <c r="L8">
         <f>Distances!L8/80</f>
@@ -3266,38 +3266,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>0.56304546467770733</v>
+        <v>6.5475538727700733E-2</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>0.92957805665629978</v>
+        <v>1.1774918191676582</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.3723565867707976</v>
+        <v>0.52733490232884517</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>1.8354801289211911</v>
+        <v>1.0830681382230471</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>0.35698934814341859</v>
+        <v>1.2886419916945413</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>0.57171175913119143</v>
+        <v>0.96473327354420157</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>1.1236222586866782</v>
+        <v>1.0575820321660498</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>1.8942878808501937</v>
+        <v>0.83338380079359275</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>0.75031766155734814</v>
+        <v>0.56749379122491672</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>0.56304546467770733</v>
+        <v>6.5475538727700733E-2</v>
       </c>
       <c r="L9">
         <f>Distances!L9/80</f>
@@ -3336,42 +3336,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>0.5227933228738546</v>
+        <v>0.58406885221508431</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>0.41137147804627539</v>
+        <v>0.76475088603848163</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>1.5460843091653067</v>
+        <v>0.94010246780693429</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>1.8587139538921202</v>
+        <v>1.3793844684551912</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>0.46239900795232636</v>
+        <v>1.8542517479976908</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>0.77021515744967362</v>
+        <v>1.0225093119811484</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>0.51105869844176133</v>
+        <v>1.477589780025111</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>1.9062384798786358</v>
+        <v>0.81352035494808939</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>0.75031766155734814</v>
+        <v>0.56749379122491672</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>0.5227933228738546</v>
+        <v>0.58406885221508431</v>
       </c>
       <c r="L10">
         <f>Distances!L10/80</f>
@@ -3406,46 +3406,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Distances!A11/80</f>
         <v>0</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>0.43405208136708151</v>
+        <v>1.1553341171640237</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>1.0464290439782509</v>
+        <v>0.46504008767836086</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.4184735142055174</v>
+        <v>1.0182500512423058</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>0.24474602712897514</v>
+        <v>1.2709403583104484</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>0.25219036188824329</v>
+        <v>1.0302056925302385</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>0.63874575113279408</v>
+        <v>0.99954235663999513</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>1.4719394591688046</v>
+        <v>0.89783441802909325</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>0.56304546467770733</v>
+        <v>6.5475538727700733E-2</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>0.5227933228738546</v>
+        <v>0.58406885221508431</v>
       </c>
       <c r="K11">
         <f>Distances!K11/80</f>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Distances!A12/80</f>
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Distances!A13/80</f>
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Distances!A14/80</f>
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Distances!A15/80</f>
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Distances!A16/80</f>
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Distances!A17/80</f>
         <v>0</v>
